--- a/SCH-STH/Impact assessments/Burkina Faso/2024/bf_202403_sch_ia_4_resultat_urines.xlsx
+++ b/SCH-STH/Impact assessments/Burkina Faso/2024/bf_202403_sch_ia_4_resultat_urines.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Burkina Faso\nov 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Burkina Faso\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E071DBE1-1FEA-496C-A567-8B866DF0EC5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3072ED96-B07E-4AA2-B853-BACF3D46157E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -525,10 +525,10 @@
     <t>Wada</t>
   </si>
   <si>
-    <t>(BF - Novembre 2023) impact schisto - 4. Formulaire Results Urines V2.1</t>
-  </si>
-  <si>
-    <t>bf_202311_sch_impact_assessment_4_resultat_urines_v2_1</t>
+    <t>bf_202403_sch_ia_4_resultat_urines</t>
+  </si>
+  <si>
+    <t>(BF - Mars 2024) impact schisto - 4. Formulaire Results Urines</t>
   </si>
 </sst>
 </file>
@@ -1365,7 +1365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21:XFD90"/>
     </sheetView>
   </sheetViews>
@@ -2712,8 +2712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2740,10 +2740,10 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>167</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>168</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>99</v>
